--- a/管理/仕様＆企画/仕様/Fight/開始終了演出.xlsx
+++ b/管理/仕様＆企画/仕様/Fight/開始終了演出.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{470B38FC-68B2-4CC1-8C92-87D044826906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2914FBAE-C554-4631-B505-DA75182DA712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B184EF7-DBA7-4314-B7A2-7F3B947155D3}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB785069-0160-4FA8-B562-03675B067C28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
